--- a/description/SQL.xlsx
+++ b/description/SQL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NdeB\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YT\Desktop\DEV\children\description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B46077A-867C-47FE-B074-C7FCCD4EACB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9836FD40-CD67-4FD1-8AB0-2C12F3CD18C7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,8 +582,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,6 +602,11 @@
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -706,11 +719,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -724,31 +738,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -763,19 +762,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный_Лист1" xfId="1" xr:uid="{42530C84-F14F-41B4-B507-C933717E211F}"/>
+    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1105,31 +1123,31 @@
   <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="C3:D3"/>
+      <selection activeCell="C20" sqref="C20:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.1796875" style="1"/>
+    <col min="14" max="14" width="35.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="20" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
@@ -1137,401 +1155,401 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
         <v>776144</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="10">
         <v>36892.569444444445</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="10">
         <v>36892.597222222219</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="14" t="s">
+      <c r="L4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="10">
         <v>776126.47006944439</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="14">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="9">
         <v>63869529327851</v>
       </c>
-      <c r="T4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4" s="14"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="T4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="9"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
         <v>776144</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="10">
         <v>36892.513888888891</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="10">
         <v>36892.541666666664</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="14" t="s">
+      <c r="L5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="10">
         <v>776141.44984953699</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="R5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" s="14">
+      <c r="R5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="9">
         <v>63871141667577</v>
       </c>
-      <c r="T5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="V5" s="14"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="T5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V5" s="9"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
         <v>776144</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="10">
         <v>36892.569444444445</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="10">
         <v>36892.597222222219</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="14" t="s">
+      <c r="L6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="10">
         <v>776142.59081018518</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="R6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="14">
+      <c r="R6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="9">
         <v>63871240246278</v>
       </c>
-      <c r="T6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="V6" s="14"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="T6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="9"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
         <v>776144</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="10">
         <v>36892.805555555555</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="10">
         <v>36892.833333333336</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="14" t="s">
+      <c r="L7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="10">
         <v>776135.43261574069</v>
       </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="S7" s="14">
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="9">
         <v>63870621778542</v>
       </c>
-      <c r="T7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="V7" s="14"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="T7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V7" s="9"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
         <v>776144</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="10">
         <v>36892.375</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="10">
         <v>36892.402777777781</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="14" t="s">
+      <c r="L8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="10">
         <v>776138.5081597222</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q8" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="R8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="S8" s="14">
+      <c r="R8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="9">
         <v>63870887505182</v>
       </c>
-      <c r="T8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="V8" s="14"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V8" s="9"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -1539,467 +1557,498 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="17"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="17"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7" t="s">
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="20"/>
+      <c r="B35" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12" t="s">
+    <row r="37" spans="1:3" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12" t="s">
+    <row r="39" spans="1:3" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:3" ht="20" x14ac:dyDescent="0.35">
+      <c r="A40" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12" t="s">
+    <row r="41" spans="1:3" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12" t="s">
+    <row r="43" spans="1:3" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:3" ht="20" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="12" t="s">
+    <row r="45" spans="1:3" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="18"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="9" t="s">
+    <row r="46" spans="1:3" ht="20" x14ac:dyDescent="0.35">
+      <c r="A46" s="18"/>
+      <c r="B46" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="12" t="s">
+    <row r="47" spans="1:3" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="18"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="9" t="s">
+    <row r="48" spans="1:3" ht="20" x14ac:dyDescent="0.35">
+      <c r="A48" s="18"/>
+      <c r="B48" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="12" t="s">
+    <row r="49" spans="1:3" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="A50" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12" t="s">
+    <row r="51" spans="1:3" ht="60.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="18"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="9" t="s">
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="A52" s="18"/>
+      <c r="B52" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12" t="s">
+    <row r="53" spans="1:3" ht="60.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="18"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="9" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="18"/>
+      <c r="B54" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="12" t="s">
+    <row r="55" spans="1:3" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+    <row r="56" spans="1:3" ht="20" x14ac:dyDescent="0.35">
+      <c r="A56" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12" t="s">
+    <row r="57" spans="1:3" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="12" t="s">
+    <row r="59" spans="1:3" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="8" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
@@ -2009,37 +2058,6 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
